--- a/tex/citation_tracker.xlsx
+++ b/tex/citation_tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfidino\Documents\GitHub\uwin-gentrification\tex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uwin-gentrification\tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B2615B-234C-4337-B7DC-9744F22B5231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A667011-8691-4045-9D7A-512A45925235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2790" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D8F7D07-C700-4EF2-93E1-2771C444547F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4D8F7D07-C700-4EF2-93E1-2771C444547F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>EJ</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>murray2022one</t>
+  </si>
+  <si>
+    <t>Fidino et al. 2020</t>
+  </si>
+  <si>
+    <t>fidino2021landscape</t>
+  </si>
+  <si>
+    <t>gehrt et al. 2010</t>
+  </si>
+  <si>
+    <t>gehrt2010urban</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(A2, " ", B2)</f>
+        <f t="shared" ref="E2:E39" si="0">_xlfn.CONCAT(A2, " ", B2)</f>
         <v>Theodore Stankowich</v>
       </c>
     </row>
@@ -801,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f>_xlfn.CONCAT(A3, " ", B3)</f>
+        <f t="shared" si="0"/>
         <v>Christopher J. Schell</v>
       </c>
     </row>
@@ -819,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.CONCAT(A4, " ", B4)</f>
+        <f t="shared" si="0"/>
         <v>Carmen M. Salsbury</v>
       </c>
     </row>
@@ -837,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.CONCAT(A5, " ", B5)</f>
+        <f t="shared" si="0"/>
         <v>Adam T. Rohnke</v>
       </c>
     </row>
@@ -855,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <f>_xlfn.CONCAT(A6, " ", B6)</f>
+        <f t="shared" si="0"/>
         <v>Mark J. Jordan</v>
       </c>
     </row>
@@ -873,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.CONCAT(A7, " ", B7)</f>
+        <f t="shared" si="0"/>
         <v>Austin M. Green</v>
       </c>
     </row>
@@ -891,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <f>_xlfn.CONCAT(A8, " ", B8)</f>
+        <f t="shared" si="0"/>
         <v>Ashley R. Gramza</v>
       </c>
     </row>
@@ -909,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <f>_xlfn.CONCAT(A9, " ", B9)</f>
+        <f t="shared" si="0"/>
         <v>Amanda J. Zellmer</v>
       </c>
     </row>
@@ -927,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <f>_xlfn.CONCAT(A10, " ", B10)</f>
+        <f t="shared" si="0"/>
         <v>Jacque Williamson</v>
       </c>
     </row>
@@ -945,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <f>_xlfn.CONCAT(A11, " ", B11)</f>
+        <f t="shared" si="0"/>
         <v>Thilina D. Surasinghe</v>
       </c>
     </row>
@@ -963,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <f>_xlfn.CONCAT(A12, " ", B12)</f>
+        <f t="shared" si="0"/>
         <v>Hunter Storm</v>
       </c>
     </row>
@@ -981,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <f>_xlfn.CONCAT(A13, " ", B13)</f>
+        <f t="shared" si="0"/>
         <v>Kimberly L. Sparks</v>
       </c>
     </row>
@@ -999,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <f>_xlfn.CONCAT(A14, " ", B14)</f>
+        <f t="shared" si="0"/>
         <v>Travis J. Ryan</v>
       </c>
     </row>
@@ -1017,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <f>_xlfn.CONCAT(A15, " ", B15)</f>
+        <f t="shared" si="0"/>
         <v>Katie R. Remine</v>
       </c>
     </row>
@@ -1035,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <f>_xlfn.CONCAT(A16, " ", B16)</f>
+        <f t="shared" si="0"/>
         <v>Mary E. Pendergast</v>
       </c>
     </row>
@@ -1053,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <f>_xlfn.CONCAT(A17, " ", B17)</f>
+        <f t="shared" si="0"/>
         <v>Kayleigh Mullen</v>
       </c>
     </row>
@@ -1071,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="str">
-        <f>_xlfn.CONCAT(A18, " ", B18)</f>
+        <f t="shared" si="0"/>
         <v>Darren E. Minier</v>
       </c>
     </row>
@@ -1089,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <f>_xlfn.CONCAT(A19, " ", B19)</f>
+        <f t="shared" si="0"/>
         <v>Christopher R. Middaugh</v>
       </c>
     </row>
@@ -1107,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <f>_xlfn.CONCAT(A20, " ", B20)</f>
+        <f t="shared" si="0"/>
         <v>Amy L. Mertl</v>
       </c>
     </row>
@@ -1125,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="str">
-        <f>_xlfn.CONCAT(A21, " ", B21)</f>
+        <f t="shared" si="0"/>
         <v>Maureen R. McClung</v>
       </c>
     </row>
@@ -1143,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <f>_xlfn.CONCAT(A22, " ", B22)</f>
+        <f t="shared" si="0"/>
         <v>Robert A. Long</v>
       </c>
     </row>
@@ -1161,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="str">
-        <f>_xlfn.CONCAT(A23, " ", B23)</f>
+        <f t="shared" si="0"/>
         <v>Rachel N. Larson</v>
       </c>
     </row>
@@ -1179,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="str">
-        <f>_xlfn.CONCAT(A24, " ", B24)</f>
+        <f t="shared" si="0"/>
         <v>Michel T. Kohl</v>
       </c>
     </row>
@@ -1197,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="str">
-        <f>_xlfn.CONCAT(A25, " ", B25)</f>
+        <f t="shared" si="0"/>
         <v>Lavendar R. Harris</v>
       </c>
     </row>
@@ -1215,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="str">
-        <f>_xlfn.CONCAT(A26, " ", B26)</f>
+        <f t="shared" si="0"/>
         <v>Courtney T. Hall</v>
       </c>
     </row>
@@ -1233,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="str">
-        <f>_xlfn.CONCAT(A27, " ", B27)</f>
+        <f t="shared" si="0"/>
         <v>Jeffrey D. Haight</v>
       </c>
     </row>
@@ -1251,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="str">
-        <f>_xlfn.CONCAT(A28, " ", B28)</f>
+        <f t="shared" si="0"/>
         <v>David Drake</v>
       </c>
     </row>
@@ -1269,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="str">
-        <f>_xlfn.CONCAT(A29, " ", B29)</f>
+        <f t="shared" si="0"/>
         <v>Alyssa M. Davidge</v>
       </c>
     </row>
@@ -1287,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="str">
-        <f>_xlfn.CONCAT(A30, " ", B30)</f>
+        <f t="shared" si="0"/>
         <v>Ann O. Cheek</v>
       </c>
     </row>
@@ -1305,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="str">
-        <f>_xlfn.CONCAT(A31, " ", B31)</f>
+        <f t="shared" si="0"/>
         <v>Christopher P. Bloch</v>
       </c>
     </row>
@@ -1323,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="str">
-        <f>_xlfn.CONCAT(A32, " ", B32)</f>
+        <f t="shared" si="0"/>
         <v>Elizabeth G. Biro</v>
       </c>
     </row>
@@ -1341,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <f>_xlfn.CONCAT(A33, " ", B33)</f>
+        <f t="shared" si="0"/>
         <v>Whitney J. B. Anthonysamy</v>
       </c>
     </row>
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="str">
-        <f>_xlfn.CONCAT(A34, " ", B34)</f>
+        <f t="shared" si="0"/>
         <v>Julia L. Angstmann</v>
       </c>
     </row>
@@ -1377,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="str">
-        <f>_xlfn.CONCAT(A35, " ", B35)</f>
+        <f t="shared" si="0"/>
         <v>Maximilian L. Allen</v>
       </c>
     </row>
@@ -1395,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="str">
-        <f>_xlfn.CONCAT(A36, " ", B36)</f>
+        <f t="shared" si="0"/>
         <v>Solny A. Adalsteinsson</v>
       </c>
     </row>
@@ -1413,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <f>_xlfn.CONCAT(A37, " ", B37)</f>
+        <f t="shared" si="0"/>
         <v>Anne G. Short</v>
       </c>
     </row>
@@ -1431,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f>_xlfn.CONCAT(A38, " ", B38)</f>
+        <f t="shared" si="0"/>
         <v>Jalene M. LaMontagne</v>
       </c>
     </row>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <f>_xlfn.CONCAT(A39, " ", B39)</f>
+        <f t="shared" si="0"/>
         <v>Tiziana A. Gelmi-Candusso</v>
       </c>
     </row>
@@ -1468,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5DCECE-F7A0-4AF3-9809-3417BF48CA78}">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1650,10 +1662,28 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4">
